--- a/HP.xlsx
+++ b/HP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Historical Prices" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2609"/>
+  <dimension ref="A1:C2649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27230,10 +27230,450 @@
         <v>45708</v>
       </c>
       <c r="B2609" t="n">
-        <v>2739.52</v>
+        <v>2738.04</v>
       </c>
       <c r="C2609" t="n">
-        <v>172.68</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B2610" t="n">
+        <v>2663</v>
+      </c>
+      <c r="C2610" t="n">
+        <v>168.94</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" s="2" t="n">
+        <v>45710</v>
+      </c>
+      <c r="B2611" t="n">
+        <v>2763.22</v>
+      </c>
+      <c r="C2611" t="n">
+        <v>172.07</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" s="2" t="n">
+        <v>45711</v>
+      </c>
+      <c r="B2612" t="n">
+        <v>2819.69</v>
+      </c>
+      <c r="C2612" t="n">
+        <v>167.94</v>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B2613" t="n">
+        <v>2513.52</v>
+      </c>
+      <c r="C2613" t="n">
+        <v>141.81</v>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B2614" t="n">
+        <v>2495.7</v>
+      </c>
+      <c r="C2614" t="n">
+        <v>144.33</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="B2615" t="n">
+        <v>2336.37</v>
+      </c>
+      <c r="C2615" t="n">
+        <v>135.32</v>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B2616" t="n">
+        <v>2307.72</v>
+      </c>
+      <c r="C2616" t="n">
+        <v>137.68</v>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B2617" t="n">
+        <v>2237.59</v>
+      </c>
+      <c r="C2617" t="n">
+        <v>148.18</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B2618" t="n">
+        <v>2217.39</v>
+      </c>
+      <c r="C2618" t="n">
+        <v>143.66</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" s="2" t="n">
+        <v>45718</v>
+      </c>
+      <c r="B2619" t="n">
+        <v>2518.11</v>
+      </c>
+      <c r="C2619" t="n">
+        <v>178.71</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B2620" t="n">
+        <v>2149.01</v>
+      </c>
+      <c r="C2620" t="n">
+        <v>142.16</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B2621" t="n">
+        <v>2171.51</v>
+      </c>
+      <c r="C2621" t="n">
+        <v>144.79</v>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B2622" t="n">
+        <v>2241.59</v>
+      </c>
+      <c r="C2622" t="n">
+        <v>146.28</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B2623" t="n">
+        <v>2202.2</v>
+      </c>
+      <c r="C2623" t="n">
+        <v>143.31</v>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B2624" t="n">
+        <v>2195.8</v>
+      </c>
+      <c r="C2624" t="n">
+        <v>144.89</v>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" s="2" t="n">
+        <v>45724.04166666666</v>
+      </c>
+      <c r="B2625" t="n">
+        <v>2203.58</v>
+      </c>
+      <c r="C2625" t="n">
+        <v>137.01</v>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" s="2" t="n">
+        <v>45725.04166666666</v>
+      </c>
+      <c r="B2626" t="n">
+        <v>2020.41</v>
+      </c>
+      <c r="C2626" t="n">
+        <v>126.51</v>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" s="2" t="n">
+        <v>45726.04166666666</v>
+      </c>
+      <c r="B2627" t="n">
+        <v>1865.1</v>
+      </c>
+      <c r="C2627" t="n">
+        <v>118.32</v>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" s="2" t="n">
+        <v>45727.04166666666</v>
+      </c>
+      <c r="B2628" t="n">
+        <v>1923.43</v>
+      </c>
+      <c r="C2628" t="n">
+        <v>125.35</v>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" s="2" t="n">
+        <v>45728.04166666666</v>
+      </c>
+      <c r="B2629" t="n">
+        <v>1908.2</v>
+      </c>
+      <c r="C2629" t="n">
+        <v>126.62</v>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" s="2" t="n">
+        <v>45729.04166666666</v>
+      </c>
+      <c r="B2630" t="n">
+        <v>1864.59</v>
+      </c>
+      <c r="C2630" t="n">
+        <v>123.37</v>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" s="2" t="n">
+        <v>45730.04166666666</v>
+      </c>
+      <c r="B2631" t="n">
+        <v>1911.65</v>
+      </c>
+      <c r="C2631" t="n">
+        <v>133.54</v>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" s="2" t="n">
+        <v>45731.04166666666</v>
+      </c>
+      <c r="B2632" t="n">
+        <v>1937.17</v>
+      </c>
+      <c r="C2632" t="n">
+        <v>135.86</v>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" s="2" t="n">
+        <v>45732.04166666666</v>
+      </c>
+      <c r="B2633" t="n">
+        <v>1887</v>
+      </c>
+      <c r="C2633" t="n">
+        <v>126.13</v>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" s="2" t="n">
+        <v>45733.04166666666</v>
+      </c>
+      <c r="B2634" t="n">
+        <v>1911.8</v>
+      </c>
+      <c r="C2634" t="n">
+        <v>129.14</v>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" s="2" t="n">
+        <v>45735.04166666666</v>
+      </c>
+      <c r="B2635" t="n">
+        <v>2056.06</v>
+      </c>
+      <c r="C2635" t="n">
+        <v>135.33</v>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" s="2" t="n">
+        <v>45736.04166666666</v>
+      </c>
+      <c r="B2636" t="n">
+        <v>1983.79</v>
+      </c>
+      <c r="C2636" t="n">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" s="2" t="n">
+        <v>45737.04166666666</v>
+      </c>
+      <c r="B2637" t="n">
+        <v>1965.75</v>
+      </c>
+      <c r="C2637" t="n">
+        <v>128.48</v>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" s="2" t="n">
+        <v>45738.04166666666</v>
+      </c>
+      <c r="B2638" t="n">
+        <v>1980.69</v>
+      </c>
+      <c r="C2638" t="n">
+        <v>128.51</v>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" s="2" t="n">
+        <v>45739.04166666666</v>
+      </c>
+      <c r="B2639" t="n">
+        <v>2005.99</v>
+      </c>
+      <c r="C2639" t="n">
+        <v>132.84</v>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" s="2" t="n">
+        <v>45740.04166666666</v>
+      </c>
+      <c r="B2640" t="n">
+        <v>2093.08</v>
+      </c>
+      <c r="C2640" t="n">
+        <v>139.79</v>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" s="2" t="n">
+        <v>45742.04166666666</v>
+      </c>
+      <c r="B2641" t="n">
+        <v>2009.52</v>
+      </c>
+      <c r="C2641" t="n">
+        <v>137.34</v>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" s="2" t="n">
+        <v>45743.04166666666</v>
+      </c>
+      <c r="B2642" t="n">
+        <v>2003.66</v>
+      </c>
+      <c r="C2642" t="n">
+        <v>138.43</v>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" s="2" t="n">
+        <v>45744.04166666666</v>
+      </c>
+      <c r="B2643" t="n">
+        <v>1896.9</v>
+      </c>
+      <c r="C2643" t="n">
+        <v>129.49</v>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" s="2" t="n">
+        <v>45745.04166666666</v>
+      </c>
+      <c r="B2644" t="n">
+        <v>1828.08</v>
+      </c>
+      <c r="C2644" t="n">
+        <v>124.58</v>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" s="2" t="n">
+        <v>45746.04166666666</v>
+      </c>
+      <c r="B2645" t="n">
+        <v>1807.74</v>
+      </c>
+      <c r="C2645" t="n">
+        <v>124.82</v>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" s="2" t="n">
+        <v>45747.08333333334</v>
+      </c>
+      <c r="B2646" t="n">
+        <v>1822.43</v>
+      </c>
+      <c r="C2646" t="n">
+        <v>124.54</v>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" s="2" t="n">
+        <v>45748.08333333334</v>
+      </c>
+      <c r="B2647" t="n">
+        <v>1904.98</v>
+      </c>
+      <c r="C2647" t="n">
+        <v>126.67</v>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" s="2" t="n">
+        <v>45749.08333333334</v>
+      </c>
+      <c r="B2648" t="n">
+        <v>1795.22</v>
+      </c>
+      <c r="C2648" t="n">
+        <v>117.42</v>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" s="2" t="n">
+        <v>45750.08333333334</v>
+      </c>
+      <c r="B2649" t="n">
+        <v>1820.25</v>
+      </c>
+      <c r="C2649" t="n">
+        <v>118.68</v>
       </c>
     </row>
   </sheetData>
